--- a/事務処理/給油申請書/給油申請書_設計図.xlsx
+++ b/事務処理/給油申請書/給油申請書_設計図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\事務処理\給油申請書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA0E4C-6555-4BAC-B379-BDF8B0E66118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D573E62-FFF6-4B70-BDCD-066044693509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="166">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -435,19 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作らないと行けない手続き</t>
-    <rPh sb="0" eb="1">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,23 +464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報呼び出し</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>給油申請書UserID.wfx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,6 +653,151 @@
   </si>
   <si>
     <t>給油申請書UserID.wfx 動作用のヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成手続き</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム開始</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手続き名</t>
+    <rPh sb="0" eb="2">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動時､変数に項目情報を入れる</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム開始と同様の処理</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報登録</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDが既によびだされていれば更新､なければ登録｡変数を項目に入れる処理</t>
+    <rPh sb="3" eb="4">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム終了</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数を更新する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインのところの変数が描画されない問題｡</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,15 +1140,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="26.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" bestFit="1" customWidth="1"/>
@@ -1118,10 +1236,10 @@
         <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1149,10 +1267,10 @@
         <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1177,10 +1295,10 @@
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1254,17 +1372,59 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1470,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1807,427 +1967,427 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2512,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -2500,7 +2660,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
